--- a/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
+++ b/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8CB8DEC-DC97-4674-A839-77F4D50A5C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC320B0-1032-4EE1-915F-2D9D207979E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3861AA00-04FA-4550-80B3-8715EC86BCDA}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{82520C0B-DF61-4B69-98EA-CFE28B8AA6D5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33B1EE6A-AE10-42B8-8118-D8958DBF8E55}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760315E1-81AE-417D-BDD5-BC386D4FE45E}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69D0E6D9-014B-4DB5-BD92-15A50896439F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA74684-7AFB-4563-A86F-373A3AAAE0FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72EEE09C-95C1-4E67-997E-0A922C8BA4B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7C05FB-13E3-48C8-ABB8-E2A2F5242121}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D769EFC-405E-29FA-0CF3-6B87B6412F9B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205F0172-980D-2828-1C2A-1B38C274CFC9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9961872D-9CAA-A2E0-B3F7-D23761B2357F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028A3FC2-0FBF-6BFB-4C7B-D8DCECF72DE1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170E33A3-E934-463A-37E2-ADF05588C279}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD6214B-1DC1-5286-D513-5D73159BA2D8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D83C0E-BD82-B0D5-65DC-C6911977EAA1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13731C7-7549-7958-994F-094F12E0AE6B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C782DF6F-0941-9F24-6AF4-360F16848FE0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC622B59-0E18-5EC3-039D-D66CA3D656EE}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DFDF76-BF9F-4BEB-A877-F5145BD5FDF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4DC076-1950-447E-B088-695F3ECB4FA9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C41305D1-3DA5-4238-AD7B-CCAFD374E21B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0464D3B-37DB-4BCE-A44D-4F4A49BB4F0A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E232E9D8-8A1D-499F-8139-BC6EC0FD4584}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB431C6D-0A8D-4EC6-8404-7E7D110810D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A42AC91-E7FA-47BF-8640-8157F1AE728D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B87A59-6C83-4B90-98DC-8FEFA5D3CCB1}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
+++ b/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC320B0-1032-4EE1-915F-2D9D207979E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0A94B3-774C-422A-8D90-8F0C1CB8A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{82520C0B-DF61-4B69-98EA-CFE28B8AA6D5}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{6BA6CF48-171B-4F12-9E79-8C156EDB9AE4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760315E1-81AE-417D-BDD5-BC386D4FE45E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91A1AA0-09D2-40C2-A9CE-A9E46748E193}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA74684-7AFB-4563-A86F-373A3AAAE0FA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6E06FA-AF5C-4D1C-ABC6-5D5ECA7BF88E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F7C05FB-13E3-48C8-ABB8-E2A2F5242121}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6674CD-5FB3-45C4-ABBD-1A1A726CFCBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205F0172-980D-2828-1C2A-1B38C274CFC9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9336ED91-BE2E-D7A5-EDD6-8AC96E54268F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028A3FC2-0FBF-6BFB-4C7B-D8DCECF72DE1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE99B6ED-E1ED-318C-B918-26EBFBB11C45}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BD6214B-1DC1-5286-D513-5D73159BA2D8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6725A9A-0FBA-823E-8E6F-F60BE061AA86}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C13731C7-7549-7958-994F-094F12E0AE6B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC3219C-E4F8-42FB-57F0-07E7C23D2321}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC622B59-0E18-5EC3-039D-D66CA3D656EE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE66AB1B-00A7-E121-913E-FDB4E6C2C756}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD4DC076-1950-447E-B088-695F3ECB4FA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A20BEDA-4C56-48E3-B58C-A8F71558C995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0464D3B-37DB-4BCE-A44D-4F4A49BB4F0A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB14C233-9D91-4AEF-B339-0EE0AF4D1D86}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB431C6D-0A8D-4EC6-8404-7E7D110810D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56674CEC-DFF3-4D52-B771-268253BAACA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B87A59-6C83-4B90-98DC-8FEFA5D3CCB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1796E5-52DF-44D9-9350-95089B2D7521}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
+++ b/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0A94B3-774C-422A-8D90-8F0C1CB8A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77E249E-4B46-44B7-982D-D576F0AAB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="4" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="4" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="CPIP" sheetId="3" r:id="rId4"/>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{6BA6CF48-171B-4F12-9E79-8C156EDB9AE4}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1C70D66D-3D24-407C-BFEE-A918B7D95569}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91A1AA0-09D2-40C2-A9CE-A9E46748E193}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0273CD2-4F68-4EAF-9FC1-E5A92EA7CBB7}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF6E06FA-AF5C-4D1C-ABC6-5D5ECA7BF88E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDA786D-588F-40A2-9BD6-7A4845C52732}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C6674CD-5FB3-45C4-ABBD-1A1A726CFCBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0630D95D-FBC5-4C91-9AD8-555F1A238784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9336ED91-BE2E-D7A5-EDD6-8AC96E54268F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A1F56A-7582-5B3F-F02F-901D907F948C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE99B6ED-E1ED-318C-B918-26EBFBB11C45}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399E31AE-9D37-770C-C614-C3EA564FF138}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6725A9A-0FBA-823E-8E6F-F60BE061AA86}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECAD5BD-BBD1-64C4-E22D-66C9D14E69B5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BC3219C-E4F8-42FB-57F0-07E7C23D2321}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E538DBB0-890B-BB79-C155-D3F7447AE2EA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE66AB1B-00A7-E121-913E-FDB4E6C2C756}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B658D1-5FD5-A611-BCA1-F68A158210C8}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A20BEDA-4C56-48E3-B58C-A8F71558C995}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D83DAAD-5AEC-4374-9D83-B7637828D7D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB14C233-9D91-4AEF-B339-0EE0AF4D1D86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F713C53-752E-4EFC-80ED-1F35B7EC8D10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1486,7 +1486,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56674CEC-DFF3-4D52-B771-268253BAACA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEB82FF-6FD8-4159-819B-C751B0E2E681}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,7 +1799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1796E5-52DF-44D9-9350-95089B2D7521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D52538C-3ACA-409E-AA1F-6FDB173B3A8B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
+++ b/FORO_REGIONAL_DO_ALTO_PETROPOLIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D77E249E-4B46-44B7-982D-D576F0AAB7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FBB4360-A2F4-4620-ACA8-2E6088A4FCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1C70D66D-3D24-407C-BFEE-A918B7D95569}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{1513EA3A-5BA2-4F25-B3F9-33E2FFBA2D98}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1109,10 +1109,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0273CD2-4F68-4EAF-9FC1-E5A92EA7CBB7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B41FFF-40DE-4618-BB92-DF979AC77A9C}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1150,7 +1150,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDA786D-588F-40A2-9BD6-7A4845C52732}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0C0ABCD-311F-49A6-A789-235CF134EFF7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1213,7 +1213,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0630D95D-FBC5-4C91-9AD8-555F1A238784}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D61283D0-B6A9-4B07-BAE2-F7BF96F4E2E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,7 +1232,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89A1F56A-7582-5B3F-F02F-901D907F948C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9A511A-0BDC-04A7-E54D-D9E10773CE93}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1281,7 +1281,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{399E31AE-9D37-770C-C614-C3EA564FF138}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9378CE5-7073-D9DB-8D74-814A0826B539}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1300,7 +1300,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECAD5BD-BBD1-64C4-E22D-66C9D14E69B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C79D16A-9948-37C8-8DBA-2C6B57DD866D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1331,7 +1331,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E538DBB0-890B-BB79-C155-D3F7447AE2EA}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94293C6D-CE4E-4D3E-23CA-FBE9E946708F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1362,7 +1362,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B658D1-5FD5-A611-BCA1-F68A158210C8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B706B9BE-56E5-0577-F81C-647A25413182}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D83DAAD-5AEC-4374-9D83-B7637828D7D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C723131-4868-4D4B-8EBD-3C32754B9101}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1443,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F713C53-752E-4EFC-80ED-1F35B7EC8D10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAE14EB2-3866-4DBC-967C-3E5BA1AA4A6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,50 +1468,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FEB82FF-6FD8-4159-819B-C751B0E2E681}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1799,7 +1755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D52538C-3ACA-409E-AA1F-6FDB173B3A8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7717BBAE-97B0-4C67-AC41-F3CEE19F43F3}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
